--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -50,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,14 +84,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,39 +116,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,7 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,34 +143,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,35 +477,40 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="11">
         <v>43351</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -559,9 +522,11 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -571,12 +536,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="13">
         <v>43607</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
@@ -586,17 +553,25 @@
         <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>10</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="8">
         <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F9" si="1">PRODUCT(D4,E4)</f>
         <v>45.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19" t="s">
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>57.650000000000006</v>
+      </c>
+      <c r="H4" s="10">
+        <f>SUM(G4,G5)</f>
+        <v>57.650000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -606,19 +581,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="3">
         <v>2.39</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>11.950000000000001</v>
       </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="13">
         <v>43667</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
@@ -628,17 +605,25 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="8">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>718.40000000000009</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19" t="s">
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>757.28000000000009</v>
+      </c>
+      <c r="H6" s="10">
+        <f>SUM(G6,G7)</f>
+        <v>757.28000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -648,19 +633,21 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>38.880000000000003</v>
       </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="13">
         <v>43713</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
@@ -670,17 +657,24 @@
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>758.81000000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19" t="s">
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>826.85</v>
+      </c>
+      <c r="H8" s="10">
+        <v>865.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
@@ -690,19 +684,18 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>68.040000000000006</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="11">
         <v>43833</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -721,6 +714,14 @@
       <c r="F10" s="6">
         <f>PRODUCT(D10,E10)</f>
         <v>143.68</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>153.4</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(G10,G11)</f>
+        <v>153.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,134 +743,41 @@
         <f>PRODUCT(D11,E11)</f>
         <v>9.7200000000000006</v>
       </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G3:G11)</f>
+        <v>1795.1800000000003</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H3:H11)</f>
+        <v>1834.0600000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>38.879999999999882</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -747,35 +747,86 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="11">
+        <v>44011</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2471</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="2">SUM(C12,-C10)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f>PRODUCT(D12,E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>801.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>553</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f>PRODUCT(D13,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <f>SUM(G3:G11)</f>
         <v>1795.1800000000003</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H14" s="10">
         <f>SUM(H3:H11)</f>
         <v>1834.0600000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
         <v>38.879999999999882</v>
       </c>
     </row>

--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -798,35 +798,86 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="11">
+        <v>44082</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2471</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="3">SUM(C14,-C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f>PRODUCT(D14,E14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1295.3699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>553</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f>PRODUCT(D15,E15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G16" s="10">
         <f>SUM(G3:G11)</f>
         <v>1795.1800000000003</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H16" s="10">
         <f>SUM(H3:H11)</f>
         <v>1834.0600000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
         <v>38.879999999999882</v>
       </c>
     </row>

--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" ref="F10:F15" si="2">PRODUCT(D10,E10)</f>
         <v>143.68</v>
       </c>
       <c r="G10" s="10">
@@ -740,7 +740,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="2"/>
         <v>9.7200000000000006</v>
       </c>
       <c r="G11" s="10"/>
@@ -757,14 +757,14 @@
         <v>2471</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="2">SUM(C12,-C10)</f>
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
         <v>0</v>
       </c>
       <c r="E12" s="8">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="10">
@@ -784,14 +784,14 @@
         <v>553</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>PRODUCT(D13,E13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="10"/>
@@ -808,14 +808,14 @@
         <v>2471</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="3">SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D15" si="4">SUM(C14,-C12)</f>
         <v>0</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f>PRODUCT(D14,E14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="10">
@@ -835,50 +835,101 @@
         <v>553</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f>PRODUCT(D15,E15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="11">
+        <v>44112</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2471</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="5">SUM(C16,-C14)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="6">PRODUCT(D16,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>776.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>553</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <f>SUM(G3:G11)</f>
+      <c r="G18" s="10">
+        <f>SUM(G3:G17)</f>
         <v>1795.1800000000003</v>
       </c>
-      <c r="H16" s="10">
-        <f>SUM(H3:H11)</f>
-        <v>1834.0600000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
+      <c r="H18" s="10">
+        <f>SUM(H3:H17)</f>
+        <v>4707.3899999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
-        <v>38.879999999999882</v>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
+        <v>2912.2099999999991</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -754,22 +754,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>2471</v>
+        <v>2599</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E12" s="8">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>574.72</v>
       </c>
       <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>0</v>
+        <v>647.62</v>
       </c>
       <c r="H12" s="10">
         <v>801.02</v>
@@ -781,18 +781,18 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -805,22 +805,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>2471</v>
+        <v>2841</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ref="D14:D15" si="4">SUM(C14,-C12)</f>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1139.82</v>
       </c>
       <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
-        <v>0</v>
+        <v>1295.3699999999999</v>
       </c>
       <c r="H14" s="10">
         <v>1295.3699999999999</v>
@@ -832,18 +832,18 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>553</v>
+        <v>644</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>155.54999999999998</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -856,22 +856,22 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>2471</v>
+        <v>3000</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D17" si="5">SUM(C16,-C14)</f>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" ref="F16:F17" si="6">PRODUCT(D16,E16)</f>
-        <v>0</v>
+        <v>748.89</v>
       </c>
       <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
-        <v>0</v>
+        <v>776.93999999999994</v>
       </c>
       <c r="H16" s="10">
         <v>776.94</v>
@@ -883,18 +883,18 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>553</v>
+        <v>655</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>28.049999999999997</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="G18" s="10">
         <f>SUM(G3:G17)</f>
-        <v>1795.1800000000003</v>
+        <v>4515.1099999999997</v>
       </c>
       <c r="H18" s="10">
         <f>SUM(H3:H17)</f>
@@ -929,7 +929,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10">
         <f>SUM(H18,-G18)</f>
-        <v>2912.2099999999991</v>
+        <v>192.27999999999975</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -900,35 +900,86 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="11">
+        <v>44342</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="7">SUM(C18,-C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="8">PRODUCT(D18,E18)</f>
+        <v>471</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>509.25</v>
+      </c>
+      <c r="H18" s="10">
+        <v>509.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>670</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="8"/>
+        <v>38.25</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G20" s="10">
         <f>SUM(G3:G17)</f>
         <v>4515.1099999999997</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H20" s="10">
         <f>SUM(H3:H17)</f>
         <v>4707.3899999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
         <v>192.27999999999975</v>
       </c>
     </row>

--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -463,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -951,35 +951,86 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="11">
+        <v>44421</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="9">SUM(C20,-C18)</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="10">PRODUCT(D20,E20)</f>
+        <v>496</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>549.6</v>
+      </c>
+      <c r="H20" s="10">
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>690</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="10"/>
+        <v>53.6</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G22" s="10">
         <f>SUM(G3:G17)</f>
         <v>4515.1099999999997</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H22" s="10">
         <f>SUM(H3:H17)</f>
         <v>4707.3899999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
         <v>192.27999999999975</v>
       </c>
     </row>

--- a/sputnik/personal/ee/86ee.xlsx
+++ b/sputnik/personal/ee/86ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -120,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -155,6 +162,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1002,35 +1025,137 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6" t="s">
+      <c r="A22" s="15">
+        <v>44470</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3413</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" ref="D22:D23" si="11">SUM(C22,-C20)</f>
+        <v>213</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" ref="F22:F23" si="12">PRODUCT(D22,E22)</f>
+        <v>1056.48</v>
+      </c>
+      <c r="G22" s="19">
+        <f>SUM(F22,F23)</f>
+        <v>1163.68</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1053.5999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>730</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="12"/>
+        <v>107.2</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>44516</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3475</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="13">SUM(C24,-C22)</f>
+        <v>62</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="14">PRODUCT(D24,E24)</f>
+        <v>307.52</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>307.52</v>
+      </c>
+      <c r="H24" s="10">
+        <v>307.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>730</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
-        <f>SUM(G3:G17)</f>
-        <v>4515.1099999999997</v>
-      </c>
-      <c r="H22" s="10">
-        <f>SUM(H3:H17)</f>
-        <v>4707.3899999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6" t="s">
+      <c r="G26" s="10">
+        <f>SUM(G3:G21)</f>
+        <v>5573.96</v>
+      </c>
+      <c r="H26" s="10">
+        <f>SUM(H3:H21)</f>
+        <v>5766.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
         <v>192.27999999999975</v>
       </c>
     </row>
